--- a/Documentção/CronogramaProjetoFinal.xlsx
+++ b/Documentção/CronogramaProjetoFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Projeto Final - IX sistemas\Documentção\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD1C2B1-3B30-4E14-B228-7FA425B68688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F89AA3-32AB-4D8D-B6D2-4E003FA0A3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Tarefas</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Isadora</t>
+  </si>
+  <si>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1054,8 +1057,8 @@
         <v>38</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1073,11 +1076,11 @@
         <v>18</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>

--- a/Documentção/CronogramaProjetoFinal.xlsx
+++ b/Documentção/CronogramaProjetoFinal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Projeto Final - IX sistemas\Documentção\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F89AA3-32AB-4D8D-B6D2-4E003FA0A3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8080D-E3A2-4C03-8F3E-FD619A608ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -522,6 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +854,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,8 +1068,8 @@
       <c r="C9" s="9"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="11"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1080,9 +1089,9 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1103,8 +1112,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1126,7 +1135,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>

--- a/Documentção/CronogramaProjetoFinal.xlsx
+++ b/Documentção/CronogramaProjetoFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Projeto Final - IX sistemas\Documentção\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8080D-E3A2-4C03-8F3E-FD619A608ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69DA14-5AA5-4A11-9568-C9B50073B7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,6 +506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,7 +531,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +854,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,24 +865,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -909,22 +909,22 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -1070,8 +1070,8 @@
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1092,8 +1092,8 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1114,8 +1114,8 @@
       <c r="E11" s="8"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="11"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1135,9 +1135,9 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="11"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1159,7 +1159,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -1258,11 +1258,11 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">

--- a/Documentção/CronogramaProjetoFinal.xlsx
+++ b/Documentção/CronogramaProjetoFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Projeto Final - IX sistemas\Documentção\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Ix sistemas\Ix-Sistemas\Documentção\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69DA14-5AA5-4A11-9568-C9B50073B7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DB792-6E9D-45FB-AAF3-21FBAEF02A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -531,6 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +855,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1117,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1138,7 +1139,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="16"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1159,7 +1160,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>

--- a/Documentção/CronogramaProjetoFinal.xlsx
+++ b/Documentção/CronogramaProjetoFinal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Ix sistemas\Ix-Sistemas\Documentção\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DB792-6E9D-45FB-AAF3-21FBAEF02A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17458CCF-8AAD-4311-BFE4-A1E9806A4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Lucas</t>
   </si>
   <si>
-    <t>Lucas/Pedro</t>
-  </si>
-  <si>
     <t>Caio/Caique</t>
   </si>
   <si>
@@ -136,10 +133,13 @@
     <t>Cronograma Projeto Final</t>
   </si>
   <si>
-    <t>Isadora</t>
-  </si>
-  <si>
-    <t>Pedro</t>
+    <t>Pedro/Lucas</t>
+  </si>
+  <si>
+    <t>Lucas/Caique</t>
+  </si>
+  <si>
+    <t>Pedro/Isadora</t>
   </si>
 </sst>
 </file>
@@ -507,6 +507,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,7 +532,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,24 +866,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
+      <c r="A1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -910,22 +910,22 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>27</v>
@@ -1017,23 +1017,23 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -1064,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="18"/>
@@ -1086,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1160,11 +1160,11 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1183,10 +1183,10 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1196,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1205,10 +1205,10 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1218,7 +1218,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1227,20 +1227,20 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1253,17 +1253,17 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="11"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="11"/>
       <c r="P17" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">

--- a/Documentção/CronogramaProjetoFinal.xlsx
+++ b/Documentção/CronogramaProjetoFinal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudo Trabalho\Desktop\Ix sistemas\Ix-Sistemas\Documentção\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17458CCF-8AAD-4311-BFE4-A1E9806A4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DB792-6E9D-45FB-AAF3-21FBAEF02A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,6 +106,9 @@
     <t>Lucas</t>
   </si>
   <si>
+    <t>Lucas/Pedro</t>
+  </si>
+  <si>
     <t>Caio/Caique</t>
   </si>
   <si>
@@ -133,13 +136,10 @@
     <t>Cronograma Projeto Final</t>
   </si>
   <si>
-    <t>Pedro/Lucas</t>
-  </si>
-  <si>
-    <t>Lucas/Caique</t>
-  </si>
-  <si>
-    <t>Pedro/Isadora</t>
+    <t>Isadora</t>
+  </si>
+  <si>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
@@ -507,31 +507,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,24 +866,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+      <c r="A1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -910,22 +910,22 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>27</v>
@@ -1017,23 +1017,23 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -1064,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="18"/>
@@ -1086,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1160,11 +1160,11 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1183,10 +1183,10 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1196,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1205,10 +1205,10 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1218,7 +1218,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1227,20 +1227,20 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1253,17 +1253,17 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
